--- a/Documents/Testing/TestPlan/function_requirements_traceability_matrix.xlsx
+++ b/Documents/Testing/TestPlan/function_requirements_traceability_matrix.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26717"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Desktop/CPA/SFT221/MS3-PROJECT-SFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86A4D0-4398-D544-A6CB-6E7F1A056C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{382F4B36-4A29-DD47-BD73-6CEFC2F59F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDEFDA8A-8969-4B2F-8A69-418B0993D413}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="2740" windowWidth="27900" windowHeight="17020" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -61,291 +62,128 @@
     <t>R006</t>
   </si>
   <si>
-    <t>Functions</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: validate() — Validate weight, volume, and destination requirements of an order</t>
+    </r>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>BB_validate</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>F001</t>
-  </si>
-  <si>
-    <t>F002</t>
-  </si>
-  <si>
-    <t>F003</t>
-  </si>
-  <si>
-    <t>F004</t>
-  </si>
-  <si>
-    <t>F005</t>
-  </si>
-  <si>
-    <t>F006</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: validate()</t>
-    </r>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: getSpaceRemaining() — Calculate the limiting factor for a truck (volume or weight)</t>
+    </r>
+  </si>
+  <si>
+    <t>WB_validate</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: getSpaceRemaining()</t>
-    </r>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: getTruckByReference() — Retrieve a truck from the fleet based on its route symbol</t>
+    </r>
+  </si>
+  <si>
+    <t>BB_getSpaceRemaining</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: getTruckByReference()</t>
-    </r>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: getTruckDistances2() — Calculate the distances between a destination point and the closest points on the routes of each truck</t>
+    </r>
+  </si>
+  <si>
+    <t>WB_getSpaceRemaining</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: getTruckDistances2()</t>
-    </r>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: sortByLimitingFactor() — Sort the truck distances based on the limiting factor</t>
+    </r>
+  </si>
+  <si>
+    <t>BB_getTruckByReference</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: sortByLimitingFactor()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: findTruckAndDiversion()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Validate weight, volume, and destination requirements of an order</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Calculate the limiting factor for a truck (volume or weight)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Retrieve a truck from the fleet based on its route symbol</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Calculate the distances between a destination point and the closest points on the routes of each truck</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Sort the truck distances based on the limiting factor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>R006</t>
     </r>
@@ -354,18 +192,37 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Assign an order to a truck, considering weight, volume, and diversion calculations</t>
-    </r>
+      </rPr>
+      <t>: findTruckAndDiversion() — Assign an order to a truck, considering weight, volume, and diversion calculations</t>
+    </r>
+  </si>
+  <si>
+    <t>WB_getTruckByReference</t>
+  </si>
+  <si>
+    <t>BB_getTruckDistances2</t>
+  </si>
+  <si>
+    <t>WB_getTruckDistances2</t>
+  </si>
+  <si>
+    <t>BB_sortByLimitingFactor</t>
+  </si>
+  <si>
+    <t>WB_sortByLimitingFactor</t>
+  </si>
+  <si>
+    <t>BB_findTruckAndDiversion</t>
+  </si>
+  <si>
+    <t>WB_findTruckAndDiversion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,18 +240,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -455,6 +307,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,13 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,34 +635,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -832,177 +682,281 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="J2" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="J6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="7" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="J5" s="7" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="J6" s="7" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="J7" s="7" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A3:A14"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Testing/TestPlan/function_requirements_traceability_matrix.xlsx
+++ b/Documents/Testing/TestPlan/function_requirements_traceability_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26717"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Desktop/CPA/SFT221/MS3-PROJECT-SFT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irish\Documents\SUM23-SFT221-NAA-4\Documents\Testing\TestPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{382F4B36-4A29-DD47-BD73-6CEFC2F59F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDEFDA8A-8969-4B2F-8A69-418B0993D413}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F87A776-F329-42FC-B0E2-E9F083E74D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -217,12 +217,42 @@
   <si>
     <t>WB_findTruckAndDiversion</t>
   </si>
+  <si>
+    <t>GetDistancesAndSort</t>
+  </si>
+  <si>
+    <t>GetTruckByRefereceAndGetSpace</t>
+  </si>
+  <si>
+    <t>MOCK_RUN_ENTIRE_PROGRAM</t>
+  </si>
+  <si>
+    <t>ValidateAndGetTruckDistances2</t>
+  </si>
+  <si>
+    <t>integrateValidateAndGetTruckDistances2</t>
+  </si>
+  <si>
+    <t>integrateGetTruckByRefereceAndGetSpace</t>
+  </si>
+  <si>
+    <t>integrateGetDistancesAndSortByLimitingFactor</t>
+  </si>
+  <si>
+    <t>integrateAllFunctions</t>
+  </si>
+  <si>
+    <t>INTEGRATION FUNCTIONS CORRESPONDING TO THE TEST CLASS IN COLUMN</t>
+  </si>
+  <si>
+    <t>TEST_CLASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +278,23 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +317,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -299,30 +349,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -635,330 +690,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="8"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="7" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="9" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="9" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="9" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="9" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="3:4">
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="J17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A3:A18"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>